--- a/docs/requirements/MOSIP_Roles and Responsibility_Matrix_16Jan19.xlsx
+++ b/docs/requirements/MOSIP_Roles and Responsibility_Matrix_16Jan19.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Documents\GitHub\mosip\docs\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EF788ED8-76B7-4A66-9289-2C5DE037A0B4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680"/>
   </bookViews>
   <sheets>
     <sheet name="MOSIP - Roles and Privileges" sheetId="2" r:id="rId1"/>
@@ -25,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>MINDTREE</author>
   </authors>
   <commentList>
-    <comment ref="C111" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C111" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C114" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="C114" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C120" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="C120" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="208">
   <si>
     <t xml:space="preserve">MOSIP Products
 </t>
@@ -910,7 +909,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2217,6 +2216,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2244,9 +2309,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2256,18 +2318,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2280,51 +2330,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2333,18 +2338,12 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{D009EFFC-6641-41E0-BDF0-A5704EEF7ED0}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2621,72 +2620,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:KW166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:A2"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.140625" style="172" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="78.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="23" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="23" hidden="1" customWidth="1"/>
-    <col min="7" max="13" width="15.85546875" style="9" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" style="9" customWidth="1"/>
-    <col min="15" max="16" width="15.85546875" style="9" customWidth="1"/>
-    <col min="17" max="17" width="17.28515625" style="106" customWidth="1"/>
-    <col min="18" max="19" width="15.85546875" style="9" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="9"/>
-    <col min="21" max="21" width="16.5703125" style="9" customWidth="1"/>
-    <col min="22" max="36" width="15.85546875" style="9" customWidth="1"/>
-    <col min="37" max="37" width="9.140625" style="9"/>
-    <col min="38" max="47" width="15.85546875" style="9" customWidth="1"/>
-    <col min="48" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="22.1796875" style="172" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="78.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.81640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" style="23" hidden="1" customWidth="1"/>
+    <col min="7" max="13" width="15.81640625" style="9" customWidth="1"/>
+    <col min="14" max="14" width="18.81640625" style="9" customWidth="1"/>
+    <col min="15" max="16" width="15.81640625" style="9" customWidth="1"/>
+    <col min="17" max="17" width="17.26953125" style="106" customWidth="1"/>
+    <col min="18" max="19" width="15.81640625" style="9" customWidth="1"/>
+    <col min="20" max="20" width="9.1796875" style="9"/>
+    <col min="21" max="21" width="16.54296875" style="9" customWidth="1"/>
+    <col min="22" max="36" width="15.81640625" style="9" customWidth="1"/>
+    <col min="37" max="37" width="9.1796875" style="9"/>
+    <col min="38" max="47" width="15.81640625" style="9" customWidth="1"/>
+    <col min="48" max="16384" width="9.1796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:309" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="213" t="s">
+    <row r="1" spans="1:309" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="192" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="209" t="s">
+      <c r="B1" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="211" t="s">
+      <c r="C1" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="209" t="s">
+      <c r="D1" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="209" t="s">
+      <c r="E1" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="210" t="s">
+      <c r="F1" s="189" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="216" t="s">
+      <c r="G1" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="217"/>
-      <c r="I1" s="217"/>
-      <c r="J1" s="217"/>
-      <c r="K1" s="217"/>
-      <c r="L1" s="217"/>
-      <c r="M1" s="217"/>
-      <c r="N1" s="217"/>
-      <c r="O1" s="217"/>
-      <c r="P1" s="203" t="s">
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="196"/>
+      <c r="L1" s="196"/>
+      <c r="M1" s="196"/>
+      <c r="N1" s="196"/>
+      <c r="O1" s="196"/>
+      <c r="P1" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="204"/>
-      <c r="R1" s="204"/>
+      <c r="Q1" s="183"/>
+      <c r="R1" s="183"/>
       <c r="S1" s="24"/>
       <c r="T1" s="15"/>
       <c r="U1" s="15"/>
@@ -2760,13 +2759,13 @@
       <c r="CK1" s="21"/>
       <c r="CL1" s="21"/>
     </row>
-    <row r="2" spans="1:309" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="214"/>
-      <c r="B2" s="210"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
+    <row r="2" spans="1:309" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="193"/>
+      <c r="B2" s="189"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
       <c r="G2" s="45" t="s">
         <v>8</v>
       </c>
@@ -2876,11 +2875,11 @@
       <c r="CK2" s="21"/>
       <c r="CL2" s="21"/>
     </row>
-    <row r="3" spans="1:309" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="185" t="s">
+    <row r="3" spans="1:309" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="207" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="190" t="s">
+      <c r="B3" s="212" t="s">
         <v>138</v>
       </c>
       <c r="C3" s="93"/>
@@ -2896,9 +2895,7 @@
       <c r="I3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="36" t="s">
-        <v>19</v>
-      </c>
+      <c r="J3" s="36"/>
       <c r="K3" s="36" t="s">
         <v>19</v>
       </c>
@@ -2992,9 +2989,9 @@
       <c r="CK3" s="20"/>
       <c r="CL3" s="20"/>
     </row>
-    <row r="4" spans="1:309" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="185"/>
-      <c r="B4" s="191"/>
+    <row r="4" spans="1:309" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="207"/>
+      <c r="B4" s="202"/>
       <c r="C4" s="94"/>
       <c r="D4" s="12"/>
       <c r="E4" s="92"/>
@@ -3008,9 +3005,7 @@
       <c r="I4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="J4" s="5"/>
       <c r="K4" s="5" t="s">
         <v>19</v>
       </c>
@@ -3104,8 +3099,8 @@
       <c r="CK4" s="20"/>
       <c r="CL4" s="20"/>
     </row>
-    <row r="5" spans="1:309" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="185"/>
+    <row r="5" spans="1:309" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="207"/>
       <c r="B5" s="89" t="s">
         <v>151</v>
       </c>
@@ -3122,9 +3117,7 @@
       <c r="I5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
         <v>19</v>
       </c>
@@ -3218,8 +3211,8 @@
       <c r="CK5" s="20"/>
       <c r="CL5" s="20"/>
     </row>
-    <row r="6" spans="1:309" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="185"/>
+    <row r="6" spans="1:309" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="207"/>
       <c r="B6" s="89" t="s">
         <v>137</v>
       </c>
@@ -3236,9 +3229,7 @@
       <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="J6" s="5"/>
       <c r="K6" s="5" t="s">
         <v>19</v>
       </c>
@@ -3332,8 +3323,8 @@
       <c r="CK6" s="20"/>
       <c r="CL6" s="20"/>
     </row>
-    <row r="7" spans="1:309" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="185"/>
+    <row r="7" spans="1:309" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="207"/>
       <c r="B7" s="89" t="s">
         <v>139</v>
       </c>
@@ -3350,9 +3341,7 @@
       <c r="I7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="J7" s="5"/>
       <c r="K7" s="5" t="s">
         <v>19</v>
       </c>
@@ -3446,9 +3435,9 @@
       <c r="CK7" s="20"/>
       <c r="CL7" s="20"/>
     </row>
-    <row r="8" spans="1:309" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="185"/>
-      <c r="B8" s="191" t="s">
+    <row r="8" spans="1:309" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="207"/>
+      <c r="B8" s="202" t="s">
         <v>147</v>
       </c>
       <c r="C8" s="94" t="s">
@@ -3548,9 +3537,9 @@
       <c r="CK8" s="20"/>
       <c r="CL8" s="20"/>
     </row>
-    <row r="9" spans="1:309" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="185"/>
-      <c r="B9" s="191"/>
+    <row r="9" spans="1:309" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="207"/>
+      <c r="B9" s="202"/>
       <c r="C9" s="94" t="s">
         <v>153</v>
       </c>
@@ -3648,9 +3637,9 @@
       <c r="CK9" s="20"/>
       <c r="CL9" s="20"/>
     </row>
-    <row r="10" spans="1:309" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="185"/>
-      <c r="B10" s="191"/>
+    <row r="10" spans="1:309" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="207"/>
+      <c r="B10" s="202"/>
       <c r="C10" s="94" t="s">
         <v>154</v>
       </c>
@@ -3748,8 +3737,8 @@
       <c r="CK10" s="20"/>
       <c r="CL10" s="20"/>
     </row>
-    <row r="11" spans="1:309" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="185"/>
+    <row r="11" spans="1:309" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="207"/>
       <c r="B11" s="89" t="s">
         <v>117</v>
       </c>
@@ -3848,8 +3837,8 @@
       <c r="CK11" s="20"/>
       <c r="CL11" s="20"/>
     </row>
-    <row r="12" spans="1:309" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="185"/>
+    <row r="12" spans="1:309" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="207"/>
       <c r="B12" s="89" t="s">
         <v>146</v>
       </c>
@@ -3944,8 +3933,8 @@
       <c r="CK12" s="20"/>
       <c r="CL12" s="20"/>
     </row>
-    <row r="13" spans="1:309" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="186"/>
+    <row r="13" spans="1:309" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="208"/>
       <c r="B13" s="29" t="s">
         <v>145</v>
       </c>
@@ -4040,8 +4029,8 @@
       <c r="CK13" s="20"/>
       <c r="CL13" s="20"/>
     </row>
-    <row r="14" spans="1:309" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="205" t="s">
+    <row r="14" spans="1:309" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="184" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="90" t="s">
@@ -4140,8 +4129,8 @@
       <c r="CK14" s="20"/>
       <c r="CL14" s="20"/>
     </row>
-    <row r="15" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="206"/>
+    <row r="15" spans="1:309" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="185"/>
       <c r="B15" s="56"/>
       <c r="C15" s="100" t="s">
         <v>156</v>
@@ -4455,8 +4444,8 @@
       <c r="KV15" s="12"/>
       <c r="KW15" s="12"/>
     </row>
-    <row r="16" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="206"/>
+    <row r="16" spans="1:309" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="185"/>
       <c r="B16" s="82"/>
       <c r="C16" s="14" t="s">
         <v>157</v>
@@ -4770,8 +4759,8 @@
       <c r="KV16" s="12"/>
       <c r="KW16" s="12"/>
     </row>
-    <row r="17" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="206"/>
+    <row r="17" spans="1:309" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="185"/>
       <c r="B17" s="82"/>
       <c r="C17" s="14" t="s">
         <v>158</v>
@@ -5085,8 +5074,8 @@
       <c r="KV17" s="12"/>
       <c r="KW17" s="12"/>
     </row>
-    <row r="18" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="206"/>
+    <row r="18" spans="1:309" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="185"/>
       <c r="B18" s="82"/>
       <c r="C18" s="14" t="s">
         <v>159</v>
@@ -5400,8 +5389,8 @@
       <c r="KV18" s="12"/>
       <c r="KW18" s="12"/>
     </row>
-    <row r="19" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="206"/>
+    <row r="19" spans="1:309" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="185"/>
       <c r="B19" s="82"/>
       <c r="C19" s="14" t="s">
         <v>160</v>
@@ -5715,8 +5704,8 @@
       <c r="KV19" s="12"/>
       <c r="KW19" s="12"/>
     </row>
-    <row r="20" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="206"/>
+    <row r="20" spans="1:309" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="185"/>
       <c r="B20" s="82"/>
       <c r="C20" s="100" t="s">
         <v>161</v>
@@ -6030,8 +6019,8 @@
       <c r="KV20" s="12"/>
       <c r="KW20" s="12"/>
     </row>
-    <row r="21" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="206"/>
+    <row r="21" spans="1:309" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="185"/>
       <c r="B21" s="82"/>
       <c r="C21" s="14" t="s">
         <v>162</v>
@@ -6345,8 +6334,8 @@
       <c r="KV21" s="12"/>
       <c r="KW21" s="12"/>
     </row>
-    <row r="22" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="206"/>
+    <row r="22" spans="1:309" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="185"/>
       <c r="B22" s="82"/>
       <c r="C22" s="14" t="s">
         <v>163</v>
@@ -6660,8 +6649,8 @@
       <c r="KV22" s="12"/>
       <c r="KW22" s="12"/>
     </row>
-    <row r="23" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="206"/>
+    <row r="23" spans="1:309" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="185"/>
       <c r="B23" s="82"/>
       <c r="C23" s="14" t="s">
         <v>164</v>
@@ -6975,8 +6964,8 @@
       <c r="KV23" s="12"/>
       <c r="KW23" s="12"/>
     </row>
-    <row r="24" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="206"/>
+    <row r="24" spans="1:309" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="185"/>
       <c r="B24" s="82"/>
       <c r="C24" s="100" t="s">
         <v>165</v>
@@ -7290,8 +7279,8 @@
       <c r="KV24" s="12"/>
       <c r="KW24" s="12"/>
     </row>
-    <row r="25" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="206"/>
+    <row r="25" spans="1:309" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="185"/>
       <c r="B25" s="82"/>
       <c r="C25" s="100" t="s">
         <v>166</v>
@@ -7605,8 +7594,8 @@
       <c r="KV25" s="12"/>
       <c r="KW25" s="12"/>
     </row>
-    <row r="26" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="206"/>
+    <row r="26" spans="1:309" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="185"/>
       <c r="B26" s="82"/>
       <c r="C26" s="100" t="s">
         <v>167</v>
@@ -7920,8 +7909,8 @@
       <c r="KV26" s="12"/>
       <c r="KW26" s="12"/>
     </row>
-    <row r="27" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="206"/>
+    <row r="27" spans="1:309" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="185"/>
       <c r="B27" s="82"/>
       <c r="C27" s="100" t="s">
         <v>168</v>
@@ -8235,8 +8224,8 @@
       <c r="KV27" s="12"/>
       <c r="KW27" s="12"/>
     </row>
-    <row r="28" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="206"/>
+    <row r="28" spans="1:309" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="185"/>
       <c r="B28" s="82"/>
       <c r="C28" s="100" t="s">
         <v>169</v>
@@ -8550,8 +8539,8 @@
       <c r="KV28" s="12"/>
       <c r="KW28" s="12"/>
     </row>
-    <row r="29" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="206"/>
+    <row r="29" spans="1:309" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="185"/>
       <c r="B29" s="82"/>
       <c r="C29" s="100" t="s">
         <v>170</v>
@@ -8865,8 +8854,8 @@
       <c r="KV29" s="12"/>
       <c r="KW29" s="12"/>
     </row>
-    <row r="30" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="206"/>
+    <row r="30" spans="1:309" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="185"/>
       <c r="B30" s="82"/>
       <c r="C30" s="100" t="s">
         <v>171</v>
@@ -9180,8 +9169,8 @@
       <c r="KV30" s="12"/>
       <c r="KW30" s="12"/>
     </row>
-    <row r="31" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="206"/>
+    <row r="31" spans="1:309" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="185"/>
       <c r="B31" s="82"/>
       <c r="C31" s="100" t="s">
         <v>172</v>
@@ -9495,8 +9484,8 @@
       <c r="KV31" s="12"/>
       <c r="KW31" s="12"/>
     </row>
-    <row r="32" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="206"/>
+    <row r="32" spans="1:309" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="185"/>
       <c r="B32" s="82"/>
       <c r="C32" s="100" t="s">
         <v>173</v>
@@ -9810,8 +9799,8 @@
       <c r="KV32" s="12"/>
       <c r="KW32" s="12"/>
     </row>
-    <row r="33" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="206"/>
+    <row r="33" spans="1:309" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="185"/>
       <c r="B33" s="82"/>
       <c r="C33" s="100" t="s">
         <v>174</v>
@@ -10125,8 +10114,8 @@
       <c r="KV33" s="12"/>
       <c r="KW33" s="12"/>
     </row>
-    <row r="34" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="206"/>
+    <row r="34" spans="1:309" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="185"/>
       <c r="B34" s="82"/>
       <c r="C34" s="100" t="s">
         <v>175</v>
@@ -10440,8 +10429,8 @@
       <c r="KV34" s="12"/>
       <c r="KW34" s="12"/>
     </row>
-    <row r="35" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="206"/>
+    <row r="35" spans="1:309" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="185"/>
       <c r="B35" s="82"/>
       <c r="C35" s="100" t="s">
         <v>176</v>
@@ -10755,8 +10744,8 @@
       <c r="KV35" s="12"/>
       <c r="KW35" s="12"/>
     </row>
-    <row r="36" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="206"/>
+    <row r="36" spans="1:309" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="185"/>
       <c r="B36" s="82"/>
       <c r="C36" s="100" t="s">
         <v>177</v>
@@ -11070,8 +11059,8 @@
       <c r="KV36" s="12"/>
       <c r="KW36" s="12"/>
     </row>
-    <row r="37" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="206"/>
+    <row r="37" spans="1:309" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="185"/>
       <c r="B37" s="82"/>
       <c r="C37" s="100" t="s">
         <v>178</v>
@@ -11385,8 +11374,8 @@
       <c r="KV37" s="12"/>
       <c r="KW37" s="12"/>
     </row>
-    <row r="38" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="206"/>
+    <row r="38" spans="1:309" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="185"/>
       <c r="B38" s="82"/>
       <c r="C38" s="100" t="s">
         <v>179</v>
@@ -11700,8 +11689,8 @@
       <c r="KV38" s="12"/>
       <c r="KW38" s="12"/>
     </row>
-    <row r="39" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="206"/>
+    <row r="39" spans="1:309" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="185"/>
       <c r="B39" s="82"/>
       <c r="C39" s="100" t="s">
         <v>180</v>
@@ -12015,8 +12004,8 @@
       <c r="KV39" s="12"/>
       <c r="KW39" s="12"/>
     </row>
-    <row r="40" spans="1:309" x14ac:dyDescent="0.25">
-      <c r="A40" s="206"/>
+    <row r="40" spans="1:309" x14ac:dyDescent="0.35">
+      <c r="A40" s="185"/>
       <c r="B40" s="56" t="s">
         <v>20</v>
       </c>
@@ -12077,8 +12066,8 @@
       <c r="BX40" s="10"/>
       <c r="BY40" s="10"/>
     </row>
-    <row r="41" spans="1:309" x14ac:dyDescent="0.25">
-      <c r="A41" s="206"/>
+    <row r="41" spans="1:309" x14ac:dyDescent="0.35">
+      <c r="A41" s="185"/>
       <c r="B41" s="56" t="s">
         <v>127</v>
       </c>
@@ -12139,8 +12128,8 @@
       <c r="BX41" s="10"/>
       <c r="BY41" s="10"/>
     </row>
-    <row r="42" spans="1:309" x14ac:dyDescent="0.25">
-      <c r="A42" s="206"/>
+    <row r="42" spans="1:309" x14ac:dyDescent="0.35">
+      <c r="A42" s="185"/>
       <c r="B42" s="88" t="s">
         <v>136</v>
       </c>
@@ -12199,8 +12188,8 @@
       <c r="BX42" s="10"/>
       <c r="BY42" s="10"/>
     </row>
-    <row r="43" spans="1:309" x14ac:dyDescent="0.25">
-      <c r="A43" s="206"/>
+    <row r="43" spans="1:309" x14ac:dyDescent="0.35">
+      <c r="A43" s="185"/>
       <c r="B43" s="55" t="s">
         <v>128</v>
       </c>
@@ -12261,9 +12250,9 @@
       <c r="BX43" s="10"/>
       <c r="BY43" s="10"/>
     </row>
-    <row r="44" spans="1:309" x14ac:dyDescent="0.25">
-      <c r="A44" s="206"/>
-      <c r="B44" s="192" t="s">
+    <row r="44" spans="1:309" x14ac:dyDescent="0.35">
+      <c r="A44" s="185"/>
+      <c r="B44" s="213" t="s">
         <v>129</v>
       </c>
       <c r="C44" s="98" t="s">
@@ -12323,9 +12312,9 @@
       <c r="BX44" s="10"/>
       <c r="BY44" s="10"/>
     </row>
-    <row r="45" spans="1:309" x14ac:dyDescent="0.25">
-      <c r="A45" s="206"/>
-      <c r="B45" s="193"/>
+    <row r="45" spans="1:309" x14ac:dyDescent="0.35">
+      <c r="A45" s="185"/>
+      <c r="B45" s="214"/>
       <c r="C45" s="98" t="s">
         <v>185</v>
       </c>
@@ -12383,9 +12372,9 @@
       <c r="BX45" s="10"/>
       <c r="BY45" s="10"/>
     </row>
-    <row r="46" spans="1:309" x14ac:dyDescent="0.25">
-      <c r="A46" s="206"/>
-      <c r="B46" s="193"/>
+    <row r="46" spans="1:309" x14ac:dyDescent="0.35">
+      <c r="A46" s="185"/>
+      <c r="B46" s="214"/>
       <c r="C46" s="98" t="s">
         <v>186</v>
       </c>
@@ -12443,9 +12432,9 @@
       <c r="BX46" s="10"/>
       <c r="BY46" s="10"/>
     </row>
-    <row r="47" spans="1:309" x14ac:dyDescent="0.25">
-      <c r="A47" s="206"/>
-      <c r="B47" s="193"/>
+    <row r="47" spans="1:309" x14ac:dyDescent="0.35">
+      <c r="A47" s="185"/>
+      <c r="B47" s="214"/>
       <c r="C47" s="98" t="s">
         <v>187</v>
       </c>
@@ -12503,9 +12492,9 @@
       <c r="BX47" s="10"/>
       <c r="BY47" s="10"/>
     </row>
-    <row r="48" spans="1:309" x14ac:dyDescent="0.25">
-      <c r="A48" s="206"/>
-      <c r="B48" s="194"/>
+    <row r="48" spans="1:309" x14ac:dyDescent="0.35">
+      <c r="A48" s="185"/>
+      <c r="B48" s="215"/>
       <c r="C48" s="98" t="s">
         <v>188</v>
       </c>
@@ -12563,8 +12552,8 @@
       <c r="BX48" s="10"/>
       <c r="BY48" s="10"/>
     </row>
-    <row r="49" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A49" s="206"/>
+    <row r="49" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="A49" s="185"/>
       <c r="B49" s="55" t="s">
         <v>131</v>
       </c>
@@ -12625,8 +12614,8 @@
       <c r="BX49" s="10"/>
       <c r="BY49" s="10"/>
     </row>
-    <row r="50" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A50" s="206"/>
+    <row r="50" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="A50" s="185"/>
       <c r="B50" s="55" t="s">
         <v>132</v>
       </c>
@@ -12687,8 +12676,8 @@
       <c r="BX50" s="10"/>
       <c r="BY50" s="10"/>
     </row>
-    <row r="51" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A51" s="206"/>
+    <row r="51" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="A51" s="185"/>
       <c r="B51" s="55" t="s">
         <v>134</v>
       </c>
@@ -12749,8 +12738,8 @@
       <c r="BX51" s="10"/>
       <c r="BY51" s="10"/>
     </row>
-    <row r="52" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A52" s="206"/>
+    <row r="52" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="A52" s="185"/>
       <c r="B52" s="55" t="s">
         <v>133</v>
       </c>
@@ -12809,8 +12798,8 @@
       <c r="BX52" s="10"/>
       <c r="BY52" s="10"/>
     </row>
-    <row r="53" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A53" s="206"/>
+    <row r="53" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="A53" s="185"/>
       <c r="B53" s="55" t="s">
         <v>135</v>
       </c>
@@ -12869,8 +12858,8 @@
       <c r="BX53" s="10"/>
       <c r="BY53" s="10"/>
     </row>
-    <row r="54" spans="1:77" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="215"/>
+    <row r="54" spans="1:77" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="194"/>
       <c r="B54" s="29" t="s">
         <v>130</v>
       </c>
@@ -12929,18 +12918,18 @@
       <c r="BX54" s="10"/>
       <c r="BY54" s="10"/>
     </row>
-    <row r="55" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="205" t="s">
+    <row r="55" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="184" t="s">
         <v>21</v>
       </c>
       <c r="B55" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C55" s="198" t="s">
+      <c r="C55" s="203" t="s">
         <v>23</v>
       </c>
       <c r="D55" s="28"/>
-      <c r="E55" s="195"/>
+      <c r="E55" s="200"/>
       <c r="F55" s="65" t="s">
         <v>24</v>
       </c>
@@ -13017,12 +13006,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="206"/>
+    <row r="56" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="185"/>
       <c r="B56" s="56"/>
       <c r="C56" s="197"/>
       <c r="D56" s="12"/>
-      <c r="E56" s="196"/>
+      <c r="E56" s="201"/>
       <c r="F56" s="66" t="s">
         <v>25</v>
       </c>
@@ -13075,12 +13064,12 @@
       <c r="BX56" s="10"/>
       <c r="BY56" s="10"/>
     </row>
-    <row r="57" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="206"/>
+    <row r="57" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="185"/>
       <c r="B57" s="56"/>
       <c r="C57" s="197"/>
       <c r="D57" s="12"/>
-      <c r="E57" s="196"/>
+      <c r="E57" s="201"/>
       <c r="F57" s="66" t="s">
         <v>26</v>
       </c>
@@ -13135,12 +13124,12 @@
       <c r="BX57" s="10"/>
       <c r="BY57" s="10"/>
     </row>
-    <row r="58" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="206"/>
+    <row r="58" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="185"/>
       <c r="B58" s="56"/>
       <c r="C58" s="197"/>
       <c r="D58" s="12"/>
-      <c r="E58" s="196"/>
+      <c r="E58" s="201"/>
       <c r="F58" s="125" t="s">
         <v>27</v>
       </c>
@@ -13195,8 +13184,8 @@
       <c r="BX58" s="10"/>
       <c r="BY58" s="10"/>
     </row>
-    <row r="59" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="206"/>
+    <row r="59" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="185"/>
       <c r="B59" s="56"/>
       <c r="C59" s="197" t="s">
         <v>28</v>
@@ -13257,8 +13246,8 @@
       <c r="BX59" s="10"/>
       <c r="BY59" s="10"/>
     </row>
-    <row r="60" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="206"/>
+    <row r="60" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="185"/>
       <c r="B60" s="56"/>
       <c r="C60" s="197"/>
       <c r="D60" s="12"/>
@@ -13317,8 +13306,8 @@
       <c r="BX60" s="10"/>
       <c r="BY60" s="10"/>
     </row>
-    <row r="61" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="206"/>
+    <row r="61" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="185"/>
       <c r="B61" s="56"/>
       <c r="C61" s="197"/>
       <c r="D61" s="12"/>
@@ -13377,8 +13366,8 @@
       <c r="BX61" s="10"/>
       <c r="BY61" s="10"/>
     </row>
-    <row r="62" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="206"/>
+    <row r="62" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="185"/>
       <c r="B62" s="56"/>
       <c r="C62" s="197" t="s">
         <v>32</v>
@@ -13439,8 +13428,8 @@
       <c r="BX62" s="10"/>
       <c r="BY62" s="10"/>
     </row>
-    <row r="63" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="206"/>
+    <row r="63" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="185"/>
       <c r="B63" s="56"/>
       <c r="C63" s="197"/>
       <c r="D63" s="12"/>
@@ -13499,8 +13488,8 @@
       <c r="BX63" s="10"/>
       <c r="BY63" s="10"/>
     </row>
-    <row r="64" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="206"/>
+    <row r="64" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="185"/>
       <c r="B64" s="56"/>
       <c r="C64" s="197"/>
       <c r="D64" s="12"/>
@@ -13559,8 +13548,8 @@
       <c r="BX64" s="10"/>
       <c r="BY64" s="10"/>
     </row>
-    <row r="65" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="206"/>
+    <row r="65" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="185"/>
       <c r="B65" s="56"/>
       <c r="C65" s="197"/>
       <c r="D65" s="12"/>
@@ -13619,8 +13608,8 @@
       <c r="BX65" s="10"/>
       <c r="BY65" s="10"/>
     </row>
-    <row r="66" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="206"/>
+    <row r="66" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="185"/>
       <c r="B66" s="56"/>
       <c r="C66" s="197"/>
       <c r="D66" s="12"/>
@@ -13679,8 +13668,8 @@
       <c r="BX66" s="10"/>
       <c r="BY66" s="10"/>
     </row>
-    <row r="67" spans="1:77" ht="75" x14ac:dyDescent="0.25">
-      <c r="A67" s="206"/>
+    <row r="67" spans="1:77" ht="58" x14ac:dyDescent="0.35">
+      <c r="A67" s="185"/>
       <c r="B67" s="56"/>
       <c r="C67" s="197"/>
       <c r="D67" s="12"/>
@@ -13739,8 +13728,8 @@
       <c r="BX67" s="10"/>
       <c r="BY67" s="10"/>
     </row>
-    <row r="68" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="207"/>
+    <row r="68" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="186"/>
       <c r="B68" s="56"/>
       <c r="C68" s="197" t="s">
         <v>39</v>
@@ -13802,8 +13791,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="207"/>
+    <row r="69" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="186"/>
       <c r="B69" s="56"/>
       <c r="C69" s="197"/>
       <c r="D69" s="12"/>
@@ -13853,8 +13842,8 @@
       <c r="AT69" s="1"/>
       <c r="AU69" s="6"/>
     </row>
-    <row r="70" spans="1:77" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="207"/>
+    <row r="70" spans="1:77" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="186"/>
       <c r="B70" s="56"/>
       <c r="C70" s="14" t="s">
         <v>42</v>
@@ -13906,8 +13895,8 @@
       <c r="AT70" s="1"/>
       <c r="AU70" s="6"/>
     </row>
-    <row r="71" spans="1:77" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="207"/>
+    <row r="71" spans="1:77" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="186"/>
       <c r="B71" s="56"/>
       <c r="C71" s="14" t="s">
         <v>44</v>
@@ -13959,8 +13948,8 @@
       <c r="AT71" s="1"/>
       <c r="AU71" s="6"/>
     </row>
-    <row r="72" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="207"/>
+    <row r="72" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="186"/>
       <c r="B72" s="56"/>
       <c r="C72" s="197" t="s">
         <v>46</v>
@@ -14012,8 +14001,8 @@
       <c r="AT72" s="1"/>
       <c r="AU72" s="6"/>
     </row>
-    <row r="73" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="207"/>
+    <row r="73" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="186"/>
       <c r="B73" s="56"/>
       <c r="C73" s="197"/>
       <c r="D73" s="12"/>
@@ -14063,8 +14052,8 @@
       <c r="AT73" s="1"/>
       <c r="AU73" s="6"/>
     </row>
-    <row r="74" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="207"/>
+    <row r="74" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="186"/>
       <c r="B74" s="56"/>
       <c r="C74" s="197"/>
       <c r="D74" s="12"/>
@@ -14114,8 +14103,8 @@
       <c r="AT74" s="1"/>
       <c r="AU74" s="6"/>
     </row>
-    <row r="75" spans="1:77" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="207"/>
+    <row r="75" spans="1:77" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="186"/>
       <c r="B75" s="56"/>
       <c r="C75" s="14" t="s">
         <v>50</v>
@@ -14165,10 +14154,10 @@
       <c r="AT75" s="1"/>
       <c r="AU75" s="6"/>
     </row>
-    <row r="76" spans="1:77" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="207"/>
+    <row r="76" spans="1:77" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="186"/>
       <c r="B76" s="56"/>
-      <c r="C76" s="221" t="s">
+      <c r="C76" s="198" t="s">
         <v>52</v>
       </c>
       <c r="D76" s="12"/>
@@ -14220,10 +14209,10 @@
       <c r="AT76" s="1"/>
       <c r="AU76" s="6"/>
     </row>
-    <row r="77" spans="1:77" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="208"/>
+    <row r="77" spans="1:77" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="187"/>
       <c r="B77" s="29"/>
-      <c r="C77" s="222"/>
+      <c r="C77" s="199"/>
       <c r="D77" s="30"/>
       <c r="E77" s="79"/>
       <c r="F77" s="130" t="s">
@@ -14281,8 +14270,8 @@
       <c r="AT77" s="1"/>
       <c r="AU77" s="1"/>
     </row>
-    <row r="78" spans="1:77" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="205" t="s">
+    <row r="78" spans="1:77" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="184" t="s">
         <v>191</v>
       </c>
       <c r="B78" s="27" t="s">
@@ -14346,8 +14335,8 @@
       <c r="AT78" s="1"/>
       <c r="AU78" s="1"/>
     </row>
-    <row r="79" spans="1:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="207" t="s">
+    <row r="79" spans="1:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="186" t="s">
         <v>57</v>
       </c>
       <c r="B79" s="56"/>
@@ -14405,8 +14394,8 @@
       <c r="AT79" s="1"/>
       <c r="AU79" s="1"/>
     </row>
-    <row r="80" spans="1:77" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="207"/>
+    <row r="80" spans="1:77" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="186"/>
       <c r="B80" s="56" t="s">
         <v>59</v>
       </c>
@@ -14464,8 +14453,8 @@
       <c r="AT80" s="1"/>
       <c r="AU80" s="1"/>
     </row>
-    <row r="81" spans="1:47" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="207"/>
+    <row r="81" spans="1:47" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="186"/>
       <c r="B81" s="56"/>
       <c r="C81" s="14" t="s">
         <v>61</v>
@@ -14521,8 +14510,8 @@
       <c r="AT81" s="1"/>
       <c r="AU81" s="1"/>
     </row>
-    <row r="82" spans="1:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="207"/>
+    <row r="82" spans="1:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="186"/>
       <c r="B82" s="56"/>
       <c r="C82" s="14" t="s">
         <v>122</v>
@@ -14578,8 +14567,8 @@
       <c r="AT82" s="1"/>
       <c r="AU82" s="1"/>
     </row>
-    <row r="83" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A83" s="207"/>
+    <row r="83" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A83" s="186"/>
       <c r="B83" s="80"/>
       <c r="C83" s="14" t="s">
         <v>123</v>
@@ -14633,8 +14622,8 @@
       <c r="AT83" s="1"/>
       <c r="AU83" s="1"/>
     </row>
-    <row r="84" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A84" s="207"/>
+    <row r="84" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A84" s="186"/>
       <c r="B84" s="80"/>
       <c r="C84" s="14" t="s">
         <v>124</v>
@@ -14688,8 +14677,8 @@
       <c r="AT84" s="1"/>
       <c r="AU84" s="1"/>
     </row>
-    <row r="85" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A85" s="207"/>
+    <row r="85" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A85" s="186"/>
       <c r="B85" s="80"/>
       <c r="C85" s="14" t="s">
         <v>125</v>
@@ -14743,8 +14732,8 @@
       <c r="AT85" s="1"/>
       <c r="AU85" s="1"/>
     </row>
-    <row r="86" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A86" s="207"/>
+    <row r="86" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A86" s="186"/>
       <c r="B86" s="80"/>
       <c r="C86" s="14" t="s">
         <v>126</v>
@@ -14798,8 +14787,8 @@
       <c r="AT86" s="1"/>
       <c r="AU86" s="1"/>
     </row>
-    <row r="87" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="207"/>
+    <row r="87" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="186"/>
       <c r="B87" s="56"/>
       <c r="C87" s="14" t="s">
         <v>62</v>
@@ -14855,8 +14844,8 @@
       <c r="AT87" s="1"/>
       <c r="AU87" s="1"/>
     </row>
-    <row r="88" spans="1:47" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="207"/>
+    <row r="88" spans="1:47" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="186"/>
       <c r="B88" s="56"/>
       <c r="C88" s="14" t="s">
         <v>63</v>
@@ -14910,8 +14899,8 @@
       <c r="AT88" s="1"/>
       <c r="AU88" s="1"/>
     </row>
-    <row r="89" spans="1:47" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="207"/>
+    <row r="89" spans="1:47" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="186"/>
       <c r="B89" s="56"/>
       <c r="C89" s="14" t="s">
         <v>64</v>
@@ -14967,8 +14956,8 @@
       <c r="AT89" s="1"/>
       <c r="AU89" s="1"/>
     </row>
-    <row r="90" spans="1:47" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="207"/>
+    <row r="90" spans="1:47" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="186"/>
       <c r="B90" s="56" t="s">
         <v>65</v>
       </c>
@@ -15024,8 +15013,8 @@
       <c r="AT90" s="1"/>
       <c r="AU90" s="1"/>
     </row>
-    <row r="91" spans="1:47" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="207"/>
+    <row r="91" spans="1:47" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="186"/>
       <c r="B91" s="56" t="s">
         <v>66</v>
       </c>
@@ -15081,8 +15070,8 @@
       <c r="AT91" s="1"/>
       <c r="AU91" s="1"/>
     </row>
-    <row r="92" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A92" s="207"/>
+    <row r="92" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A92" s="186"/>
       <c r="B92" s="84"/>
       <c r="C92" s="14" t="s">
         <v>142</v>
@@ -15130,8 +15119,8 @@
       <c r="AT92" s="1"/>
       <c r="AU92" s="1"/>
     </row>
-    <row r="93" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A93" s="207"/>
+    <row r="93" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A93" s="186"/>
       <c r="B93" s="84"/>
       <c r="C93" s="14" t="s">
         <v>143</v>
@@ -15179,8 +15168,8 @@
       <c r="AT93" s="1"/>
       <c r="AU93" s="1"/>
     </row>
-    <row r="94" spans="1:47" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="207"/>
+    <row r="94" spans="1:47" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="186"/>
       <c r="B94" s="56"/>
       <c r="C94" s="14" t="s">
         <v>144</v>
@@ -15234,8 +15223,8 @@
       <c r="AT94" s="1"/>
       <c r="AU94" s="1"/>
     </row>
-    <row r="95" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="207"/>
+    <row r="95" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="186"/>
       <c r="B95" s="56" t="s">
         <v>67</v>
       </c>
@@ -15291,8 +15280,8 @@
       <c r="AT95" s="1"/>
       <c r="AU95" s="1"/>
     </row>
-    <row r="96" spans="1:47" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="207"/>
+    <row r="96" spans="1:47" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="186"/>
       <c r="B96" s="56" t="s">
         <v>68</v>
       </c>
@@ -15348,8 +15337,8 @@
       <c r="AT96" s="1"/>
       <c r="AU96" s="1"/>
     </row>
-    <row r="97" spans="1:47" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="207"/>
+    <row r="97" spans="1:47" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="186"/>
       <c r="B97" s="56" t="s">
         <v>69</v>
       </c>
@@ -15405,8 +15394,8 @@
       <c r="AT97" s="1"/>
       <c r="AU97" s="1"/>
     </row>
-    <row r="98" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A98" s="207"/>
+    <row r="98" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A98" s="186"/>
       <c r="B98" s="55" t="s">
         <v>70</v>
       </c>
@@ -15462,8 +15451,8 @@
       <c r="AT98" s="1"/>
       <c r="AU98" s="1"/>
     </row>
-    <row r="99" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A99" s="207"/>
+    <row r="99" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A99" s="186"/>
       <c r="B99" s="55" t="s">
         <v>70</v>
       </c>
@@ -15519,8 +15508,8 @@
       <c r="AT99" s="1"/>
       <c r="AU99" s="1"/>
     </row>
-    <row r="100" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A100" s="207"/>
+    <row r="100" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A100" s="186"/>
       <c r="B100" s="55" t="s">
         <v>70</v>
       </c>
@@ -15576,8 +15565,8 @@
       <c r="AT100" s="1"/>
       <c r="AU100" s="1"/>
     </row>
-    <row r="101" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A101" s="207"/>
+    <row r="101" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A101" s="186"/>
       <c r="B101" s="55" t="s">
         <v>70</v>
       </c>
@@ -15633,8 +15622,8 @@
       <c r="AT101" s="1"/>
       <c r="AU101" s="1"/>
     </row>
-    <row r="102" spans="1:47" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="207"/>
+    <row r="102" spans="1:47" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="186"/>
       <c r="B102" s="55"/>
       <c r="C102" s="102"/>
       <c r="D102" s="48"/>
@@ -15688,11 +15677,11 @@
       <c r="AT102" s="1"/>
       <c r="AU102" s="1"/>
     </row>
-    <row r="103" spans="1:47" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="187" t="s">
+    <row r="103" spans="1:47" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="209" t="s">
         <v>71</v>
       </c>
-      <c r="B103" s="218" t="s">
+      <c r="B103" s="220" t="s">
         <v>72</v>
       </c>
       <c r="C103" s="103" t="s">
@@ -15745,9 +15734,9 @@
       <c r="AT103" s="1"/>
       <c r="AU103" s="1"/>
     </row>
-    <row r="104" spans="1:47" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="188"/>
-      <c r="B104" s="219"/>
+    <row r="104" spans="1:47" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="210"/>
+      <c r="B104" s="221"/>
       <c r="C104" s="104" t="s">
         <v>75</v>
       </c>
@@ -15798,9 +15787,9 @@
       <c r="AT104" s="1"/>
       <c r="AU104" s="1"/>
     </row>
-    <row r="105" spans="1:47" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="188"/>
-      <c r="B105" s="219"/>
+    <row r="105" spans="1:47" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="210"/>
+      <c r="B105" s="221"/>
       <c r="C105" s="104" t="s">
         <v>77</v>
       </c>
@@ -15851,9 +15840,9 @@
       <c r="AT105" s="1"/>
       <c r="AU105" s="1"/>
     </row>
-    <row r="106" spans="1:47" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="189"/>
-      <c r="B106" s="220"/>
+    <row r="106" spans="1:47" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="211"/>
+      <c r="B106" s="222"/>
       <c r="C106" s="105" t="s">
         <v>79</v>
       </c>
@@ -15904,8 +15893,8 @@
       <c r="AT106" s="1"/>
       <c r="AU106" s="1"/>
     </row>
-    <row r="107" spans="1:47" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="199" t="s">
+    <row r="107" spans="1:47" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="216" t="s">
         <v>81</v>
       </c>
       <c r="B107" s="73" t="s">
@@ -15934,8 +15923,8 @@
       </c>
       <c r="S107" s="25"/>
     </row>
-    <row r="108" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="200"/>
+    <row r="108" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="217"/>
       <c r="B108" s="70"/>
       <c r="C108" s="3" t="s">
         <v>84</v>
@@ -15960,8 +15949,8 @@
       </c>
       <c r="S108" s="25"/>
     </row>
-    <row r="109" spans="1:47" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="185" t="s">
+    <row r="109" spans="1:47" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="207" t="s">
         <v>85</v>
       </c>
       <c r="B109" s="70"/>
@@ -15988,8 +15977,8 @@
       </c>
       <c r="S109" s="25"/>
     </row>
-    <row r="110" spans="1:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="185"/>
+    <row r="110" spans="1:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="207"/>
       <c r="B110" s="70"/>
       <c r="C110" s="3" t="s">
         <v>87</v>
@@ -16014,8 +16003,8 @@
       </c>
       <c r="S110" s="25"/>
     </row>
-    <row r="111" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A111" s="185"/>
+    <row r="111" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A111" s="207"/>
       <c r="B111" s="70"/>
       <c r="C111" s="107" t="s">
         <v>88</v>
@@ -16038,8 +16027,8 @@
       </c>
       <c r="S111" s="25"/>
     </row>
-    <row r="112" spans="1:47" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="185"/>
+    <row r="112" spans="1:47" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="207"/>
       <c r="B112" s="70"/>
       <c r="C112" s="3" t="s">
         <v>89</v>
@@ -16064,8 +16053,8 @@
       </c>
       <c r="S112" s="25"/>
     </row>
-    <row r="113" spans="1:44" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="185"/>
+    <row r="113" spans="1:44" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="207"/>
       <c r="B113" s="70"/>
       <c r="C113" s="3" t="s">
         <v>90</v>
@@ -16090,8 +16079,8 @@
       </c>
       <c r="S113" s="25"/>
     </row>
-    <row r="114" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A114" s="185"/>
+    <row r="114" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A114" s="207"/>
       <c r="B114" s="70"/>
       <c r="C114" s="107" t="s">
         <v>91</v>
@@ -16114,8 +16103,8 @@
       </c>
       <c r="S114" s="25"/>
     </row>
-    <row r="115" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="185"/>
+    <row r="115" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="207"/>
       <c r="B115" s="70"/>
       <c r="C115" s="3" t="s">
         <v>92</v>
@@ -16140,8 +16129,8 @@
       </c>
       <c r="S115" s="25"/>
     </row>
-    <row r="116" spans="1:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="185"/>
+    <row r="116" spans="1:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="207"/>
       <c r="B116" s="70"/>
       <c r="C116" s="3" t="s">
         <v>93</v>
@@ -16166,8 +16155,8 @@
       </c>
       <c r="S116" s="25"/>
     </row>
-    <row r="117" spans="1:44" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="201"/>
+    <row r="117" spans="1:44" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="218"/>
       <c r="B117" s="70"/>
       <c r="C117" s="3" t="s">
         <v>94</v>
@@ -16192,8 +16181,8 @@
       </c>
       <c r="S117" s="25"/>
     </row>
-    <row r="118" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="201"/>
+    <row r="118" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="218"/>
       <c r="B118" s="70" t="s">
         <v>95</v>
       </c>
@@ -16220,8 +16209,8 @@
       </c>
       <c r="S118" s="25"/>
     </row>
-    <row r="119" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="201"/>
+    <row r="119" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="218"/>
       <c r="B119" s="70"/>
       <c r="C119" s="3" t="s">
         <v>90</v>
@@ -16246,8 +16235,8 @@
       </c>
       <c r="S119" s="25"/>
     </row>
-    <row r="120" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A120" s="201"/>
+    <row r="120" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A120" s="218"/>
       <c r="B120" s="70"/>
       <c r="C120" s="107" t="s">
         <v>91</v>
@@ -16270,8 +16259,8 @@
       </c>
       <c r="S120" s="25"/>
     </row>
-    <row r="121" spans="1:44" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="201"/>
+    <row r="121" spans="1:44" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="218"/>
       <c r="B121" s="70"/>
       <c r="C121" s="3" t="s">
         <v>92</v>
@@ -16296,8 +16285,8 @@
       </c>
       <c r="S121" s="25"/>
     </row>
-    <row r="122" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="201"/>
+    <row r="122" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="218"/>
       <c r="B122" s="70"/>
       <c r="C122" s="3" t="s">
         <v>93</v>
@@ -16322,8 +16311,8 @@
       </c>
       <c r="S122" s="25"/>
     </row>
-    <row r="123" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="201"/>
+    <row r="123" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="218"/>
       <c r="B123" s="70"/>
       <c r="C123" s="3" t="s">
         <v>94</v>
@@ -16348,8 +16337,8 @@
       </c>
       <c r="S123" s="25"/>
     </row>
-    <row r="124" spans="1:44" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="201"/>
+    <row r="124" spans="1:44" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="218"/>
       <c r="B124" s="70"/>
       <c r="C124" s="9" t="s">
         <v>148</v>
@@ -16375,8 +16364,8 @@
       </c>
       <c r="S124" s="25"/>
     </row>
-    <row r="125" spans="1:44" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="201"/>
+    <row r="125" spans="1:44" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="218"/>
       <c r="B125" s="70"/>
       <c r="C125" s="9" t="s">
         <v>149</v>
@@ -16402,8 +16391,8 @@
       </c>
       <c r="S125" s="25"/>
     </row>
-    <row r="126" spans="1:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="201"/>
+    <row r="126" spans="1:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="218"/>
       <c r="B126" s="70"/>
       <c r="C126" s="9" t="s">
         <v>150</v>
@@ -16429,8 +16418,8 @@
       </c>
       <c r="S126" s="25"/>
     </row>
-    <row r="127" spans="1:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="201"/>
+    <row r="127" spans="1:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="218"/>
       <c r="B127" s="70" t="s">
         <v>96</v>
       </c>
@@ -16481,8 +16470,8 @@
       <c r="AQ127" s="101"/>
       <c r="AR127" s="101"/>
     </row>
-    <row r="128" spans="1:44" s="31" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="201"/>
+    <row r="128" spans="1:44" s="31" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A128" s="218"/>
       <c r="B128" s="70" t="s">
         <v>97</v>
       </c>
@@ -16535,8 +16524,8 @@
       <c r="AQ128" s="101"/>
       <c r="AR128" s="101"/>
     </row>
-    <row r="129" spans="1:47" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="201"/>
+    <row r="129" spans="1:47" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="218"/>
       <c r="B129" s="70" t="s">
         <v>98</v>
       </c>
@@ -16589,8 +16578,8 @@
       <c r="AQ129" s="101"/>
       <c r="AR129" s="101"/>
     </row>
-    <row r="130" spans="1:47" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="201"/>
+    <row r="130" spans="1:47" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="218"/>
       <c r="B130" s="70" t="s">
         <v>194</v>
       </c>
@@ -16639,8 +16628,8 @@
       <c r="AQ130" s="106"/>
       <c r="AR130" s="106"/>
     </row>
-    <row r="131" spans="1:47" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="201"/>
+    <row r="131" spans="1:47" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="218"/>
       <c r="B131" s="70" t="s">
         <v>99</v>
       </c>
@@ -16691,8 +16680,8 @@
       <c r="AQ131" s="101"/>
       <c r="AR131" s="101"/>
     </row>
-    <row r="132" spans="1:47" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="202"/>
+    <row r="132" spans="1:47" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A132" s="219"/>
       <c r="B132" s="173" t="s">
         <v>100</v>
       </c>
@@ -16745,8 +16734,8 @@
       <c r="AQ132" s="101"/>
       <c r="AR132" s="101"/>
     </row>
-    <row r="133" spans="1:47" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="182" t="s">
+    <row r="133" spans="1:47" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="204" t="s">
         <v>195</v>
       </c>
       <c r="B133" s="175" t="s">
@@ -16800,8 +16789,8 @@
       <c r="AT133" s="1"/>
       <c r="AU133" s="1"/>
     </row>
-    <row r="134" spans="1:47" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="183"/>
+    <row r="134" spans="1:47" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="205"/>
       <c r="B134" s="176" t="s">
         <v>197</v>
       </c>
@@ -16853,8 +16842,8 @@
       <c r="AT134" s="1"/>
       <c r="AU134" s="1"/>
     </row>
-    <row r="135" spans="1:47" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="183"/>
+    <row r="135" spans="1:47" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="205"/>
       <c r="B135" s="176" t="s">
         <v>198</v>
       </c>
@@ -16906,8 +16895,8 @@
       <c r="AT135" s="1"/>
       <c r="AU135" s="1"/>
     </row>
-    <row r="136" spans="1:47" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="183"/>
+    <row r="136" spans="1:47" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="205"/>
       <c r="B136" s="176" t="s">
         <v>199</v>
       </c>
@@ -16959,8 +16948,8 @@
       <c r="AT136" s="1"/>
       <c r="AU136" s="1"/>
     </row>
-    <row r="137" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A137" s="183"/>
+    <row r="137" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A137" s="205"/>
       <c r="B137" s="176" t="s">
         <v>200</v>
       </c>
@@ -17009,8 +16998,8 @@
       <c r="AQ137" s="101"/>
       <c r="AR137" s="101"/>
     </row>
-    <row r="138" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A138" s="183"/>
+    <row r="138" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A138" s="205"/>
       <c r="B138" s="176" t="s">
         <v>201</v>
       </c>
@@ -17059,8 +17048,8 @@
       <c r="AQ138" s="101"/>
       <c r="AR138" s="101"/>
     </row>
-    <row r="139" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A139" s="183"/>
+    <row r="139" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A139" s="205"/>
       <c r="B139" s="176" t="s">
         <v>202</v>
       </c>
@@ -17109,8 +17098,8 @@
       <c r="AQ139" s="101"/>
       <c r="AR139" s="101"/>
     </row>
-    <row r="140" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A140" s="183"/>
+    <row r="140" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A140" s="205"/>
       <c r="B140" s="177" t="s">
         <v>203</v>
       </c>
@@ -17159,8 +17148,8 @@
       <c r="AQ140" s="101"/>
       <c r="AR140" s="101"/>
     </row>
-    <row r="141" spans="1:47" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="183"/>
+    <row r="141" spans="1:47" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="205"/>
       <c r="B141" s="176" t="s">
         <v>205</v>
       </c>
@@ -17209,8 +17198,8 @@
       <c r="AQ141" s="101"/>
       <c r="AR141" s="101"/>
     </row>
-    <row r="142" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A142" s="183"/>
+    <row r="142" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A142" s="205"/>
       <c r="B142" s="176" t="s">
         <v>204</v>
       </c>
@@ -17259,8 +17248,8 @@
       <c r="AQ142" s="101"/>
       <c r="AR142" s="101"/>
     </row>
-    <row r="143" spans="1:47" ht="30" x14ac:dyDescent="0.25">
-      <c r="A143" s="183"/>
+    <row r="143" spans="1:47" ht="26" x14ac:dyDescent="0.35">
+      <c r="A143" s="205"/>
       <c r="B143" s="176" t="s">
         <v>206</v>
       </c>
@@ -17309,8 +17298,8 @@
       <c r="AQ143" s="101"/>
       <c r="AR143" s="101"/>
     </row>
-    <row r="144" spans="1:47" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="184"/>
+    <row r="144" spans="1:47" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A144" s="206"/>
       <c r="B144" s="178" t="s">
         <v>207</v>
       </c>
@@ -17359,7 +17348,7 @@
       <c r="AQ144" s="101"/>
       <c r="AR144" s="101"/>
     </row>
-    <row r="145" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B145" s="53"/>
       <c r="C145" s="26"/>
       <c r="D145" s="26"/>
@@ -17403,7 +17392,7 @@
       <c r="AQ145" s="101"/>
       <c r="AR145" s="101"/>
     </row>
-    <row r="146" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:44" x14ac:dyDescent="0.35">
       <c r="S146" s="101"/>
       <c r="T146" s="101"/>
       <c r="U146" s="101"/>
@@ -17431,7 +17420,7 @@
       <c r="AQ146" s="101"/>
       <c r="AR146" s="101"/>
     </row>
-    <row r="147" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:44" x14ac:dyDescent="0.35">
       <c r="S147" s="101"/>
       <c r="T147" s="101"/>
       <c r="U147" s="101"/>
@@ -17459,7 +17448,7 @@
       <c r="AQ147" s="101"/>
       <c r="AR147" s="101"/>
     </row>
-    <row r="148" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:44" x14ac:dyDescent="0.35">
       <c r="S148" s="101"/>
       <c r="T148" s="101"/>
       <c r="U148" s="101"/>
@@ -17487,7 +17476,7 @@
       <c r="AQ148" s="101"/>
       <c r="AR148" s="101"/>
     </row>
-    <row r="149" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:44" x14ac:dyDescent="0.35">
       <c r="S149" s="101"/>
       <c r="T149" s="101"/>
       <c r="U149" s="101"/>
@@ -17515,7 +17504,7 @@
       <c r="AQ149" s="101"/>
       <c r="AR149" s="101"/>
     </row>
-    <row r="150" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:44" x14ac:dyDescent="0.35">
       <c r="S150" s="101"/>
       <c r="T150" s="101"/>
       <c r="U150" s="101"/>
@@ -17543,7 +17532,7 @@
       <c r="AQ150" s="101"/>
       <c r="AR150" s="101"/>
     </row>
-    <row r="151" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:44" x14ac:dyDescent="0.35">
       <c r="S151" s="101"/>
       <c r="T151" s="101"/>
       <c r="U151" s="101"/>
@@ -17571,7 +17560,7 @@
       <c r="AQ151" s="101"/>
       <c r="AR151" s="101"/>
     </row>
-    <row r="152" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:44" x14ac:dyDescent="0.35">
       <c r="S152" s="101"/>
       <c r="T152" s="101"/>
       <c r="U152" s="101"/>
@@ -17599,7 +17588,7 @@
       <c r="AQ152" s="101"/>
       <c r="AR152" s="101"/>
     </row>
-    <row r="153" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:44" x14ac:dyDescent="0.35">
       <c r="S153" s="101"/>
       <c r="T153" s="101"/>
       <c r="U153" s="101"/>
@@ -17627,7 +17616,7 @@
       <c r="AQ153" s="101"/>
       <c r="AR153" s="101"/>
     </row>
-    <row r="154" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:44" x14ac:dyDescent="0.35">
       <c r="S154" s="101"/>
       <c r="T154" s="101"/>
       <c r="U154" s="101"/>
@@ -17655,7 +17644,7 @@
       <c r="AQ154" s="101"/>
       <c r="AR154" s="101"/>
     </row>
-    <row r="155" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:44" x14ac:dyDescent="0.35">
       <c r="S155" s="101"/>
       <c r="T155" s="101"/>
       <c r="U155" s="101"/>
@@ -17683,7 +17672,7 @@
       <c r="AQ155" s="101"/>
       <c r="AR155" s="101"/>
     </row>
-    <row r="156" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:44" x14ac:dyDescent="0.35">
       <c r="S156" s="101"/>
       <c r="T156" s="101"/>
       <c r="U156" s="101"/>
@@ -17711,7 +17700,7 @@
       <c r="AQ156" s="101"/>
       <c r="AR156" s="101"/>
     </row>
-    <row r="157" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:44" x14ac:dyDescent="0.35">
       <c r="S157" s="101"/>
       <c r="T157" s="101"/>
       <c r="U157" s="101"/>
@@ -17739,7 +17728,7 @@
       <c r="AQ157" s="101"/>
       <c r="AR157" s="101"/>
     </row>
-    <row r="158" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:44" x14ac:dyDescent="0.35">
       <c r="S158" s="101"/>
       <c r="T158" s="101"/>
       <c r="U158" s="101"/>
@@ -17767,7 +17756,7 @@
       <c r="AQ158" s="101"/>
       <c r="AR158" s="101"/>
     </row>
-    <row r="159" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:44" x14ac:dyDescent="0.35">
       <c r="S159" s="101"/>
       <c r="T159" s="101"/>
       <c r="U159" s="101"/>
@@ -17795,7 +17784,7 @@
       <c r="AQ159" s="101"/>
       <c r="AR159" s="101"/>
     </row>
-    <row r="160" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:44" x14ac:dyDescent="0.35">
       <c r="S160" s="101"/>
       <c r="T160" s="101"/>
       <c r="U160" s="101"/>
@@ -17823,7 +17812,7 @@
       <c r="AQ160" s="101"/>
       <c r="AR160" s="101"/>
     </row>
-    <row r="161" spans="19:44" x14ac:dyDescent="0.25">
+    <row r="161" spans="19:44" x14ac:dyDescent="0.35">
       <c r="S161" s="101"/>
       <c r="T161" s="101"/>
       <c r="U161" s="101"/>
@@ -17851,7 +17840,7 @@
       <c r="AQ161" s="101"/>
       <c r="AR161" s="101"/>
     </row>
-    <row r="162" spans="19:44" x14ac:dyDescent="0.25">
+    <row r="162" spans="19:44" x14ac:dyDescent="0.35">
       <c r="S162" s="101"/>
       <c r="T162" s="101"/>
       <c r="U162" s="101"/>
@@ -17879,7 +17868,7 @@
       <c r="AQ162" s="101"/>
       <c r="AR162" s="101"/>
     </row>
-    <row r="163" spans="19:44" x14ac:dyDescent="0.25">
+    <row r="163" spans="19:44" x14ac:dyDescent="0.35">
       <c r="S163" s="101"/>
       <c r="T163" s="101"/>
       <c r="U163" s="101"/>
@@ -17907,7 +17896,7 @@
       <c r="AQ163" s="101"/>
       <c r="AR163" s="101"/>
     </row>
-    <row r="164" spans="19:44" x14ac:dyDescent="0.25">
+    <row r="164" spans="19:44" x14ac:dyDescent="0.35">
       <c r="S164" s="101"/>
       <c r="T164" s="101"/>
       <c r="U164" s="101"/>
@@ -17935,7 +17924,7 @@
       <c r="AQ164" s="101"/>
       <c r="AR164" s="101"/>
     </row>
-    <row r="165" spans="19:44" x14ac:dyDescent="0.25">
+    <row r="165" spans="19:44" x14ac:dyDescent="0.35">
       <c r="S165" s="101"/>
       <c r="T165" s="101"/>
       <c r="U165" s="101"/>
@@ -17963,7 +17952,7 @@
       <c r="AQ165" s="101"/>
       <c r="AR165" s="101"/>
     </row>
-    <row r="166" spans="19:44" x14ac:dyDescent="0.25">
+    <row r="166" spans="19:44" x14ac:dyDescent="0.35">
       <c r="S166" s="101"/>
       <c r="T166" s="101"/>
       <c r="U166" s="101"/>
@@ -17993,6 +17982,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="A133:A144"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="A107:A132"/>
+    <mergeCell ref="A78:A102"/>
+    <mergeCell ref="B103:B106"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="A55:A77"/>
     <mergeCell ref="B1:B2"/>
@@ -18009,42 +18008,32 @@
     <mergeCell ref="E55:E58"/>
     <mergeCell ref="C59:C61"/>
     <mergeCell ref="C62:C67"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="A133:A144"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="A103:A106"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="A107:A132"/>
-    <mergeCell ref="A78:A102"/>
-    <mergeCell ref="B103:B106"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F103:F106" r:id="rId1" location="2932-manual-adjudication-decision-service" display="POST /registration-processor/manual-adjudication/assignment" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F55" r:id="rId2" location="271-login-api" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F56" r:id="rId3" location="272-login-otp-validation-api" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F57" r:id="rId4" location="275-reterive-all-pre-registration-api" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F58" r:id="rId5" location="276-reterive-all-pre-registration-status-api" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F59" r:id="rId6" location="274-create-pre-registration-api" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F62" r:id="rId7" location="278-document-upload-api" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F64" r:id="rId8" location="2710-get-all-document-api" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F65" r:id="rId9" location="2711-delete-document-api" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F66" r:id="rId10" location="2712-delete-all-document-api" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F67" r:id="rId11" location="2713-delete-all-document-api" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F60" r:id="rId12" location="277-discard-pre-registration-api" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F61" r:id="rId13" location="2714-update-pre-registration-api" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F68" r:id="rId14" location="2721-registration-center-availability-api" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F69" r:id="rId15" location="2718-Booking-Registration-Center-api" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F70" r:id="rId16" location="2720-re-booking-api" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F71" r:id="rId17" location="2719-cancel-booking-api" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F75" r:id="rId18" location="2717-Reverse-Data-Sync-Store-Pre-Registartion-Ids-api" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="F76" r:id="rId19" location="2715-Data-Sync-Reterive-all-Pre-Registartion-Ids-api" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F77" r:id="rId20" location="2716-Data-Sync-Reterive-Pre-Registartion-data-api" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F63" r:id="rId21" location="279-get-document-api" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="F129" r:id="rId22" location="2-otp-request " xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="F107" r:id="rId23" location="1-auth-request " xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="F133:F136" r:id="rId24" location="2932-manual-adjudication-decision-service" display="POST /registration-processor/manual-adjudication/assignment" xr:uid="{ECBB3FA1-B0CC-43EA-BB4D-B124F979AA93}"/>
+    <hyperlink ref="F103:F106" r:id="rId1" location="2932-manual-adjudication-decision-service" display="POST /registration-processor/manual-adjudication/assignment"/>
+    <hyperlink ref="F55" r:id="rId2" location="271-login-api"/>
+    <hyperlink ref="F56" r:id="rId3" location="272-login-otp-validation-api"/>
+    <hyperlink ref="F57" r:id="rId4" location="275-reterive-all-pre-registration-api"/>
+    <hyperlink ref="F58" r:id="rId5" location="276-reterive-all-pre-registration-status-api"/>
+    <hyperlink ref="F59" r:id="rId6" location="274-create-pre-registration-api"/>
+    <hyperlink ref="F62" r:id="rId7" location="278-document-upload-api"/>
+    <hyperlink ref="F64" r:id="rId8" location="2710-get-all-document-api"/>
+    <hyperlink ref="F65" r:id="rId9" location="2711-delete-document-api"/>
+    <hyperlink ref="F66" r:id="rId10" location="2712-delete-all-document-api"/>
+    <hyperlink ref="F67" r:id="rId11" location="2713-delete-all-document-api"/>
+    <hyperlink ref="F60" r:id="rId12" location="277-discard-pre-registration-api"/>
+    <hyperlink ref="F61" r:id="rId13" location="2714-update-pre-registration-api"/>
+    <hyperlink ref="F68" r:id="rId14" location="2721-registration-center-availability-api"/>
+    <hyperlink ref="F69" r:id="rId15" location="2718-Booking-Registration-Center-api"/>
+    <hyperlink ref="F70" r:id="rId16" location="2720-re-booking-api"/>
+    <hyperlink ref="F71" r:id="rId17" location="2719-cancel-booking-api"/>
+    <hyperlink ref="F75" r:id="rId18" location="2717-Reverse-Data-Sync-Store-Pre-Registartion-Ids-api"/>
+    <hyperlink ref="F76" r:id="rId19" location="2715-Data-Sync-Reterive-all-Pre-Registartion-Ids-api"/>
+    <hyperlink ref="F77" r:id="rId20" location="2716-Data-Sync-Reterive-Pre-Registartion-data-api"/>
+    <hyperlink ref="F63" r:id="rId21" location="279-get-document-api"/>
+    <hyperlink ref="F129" r:id="rId22" location="2-otp-request "/>
+    <hyperlink ref="F107" r:id="rId23" location="1-auth-request "/>
+    <hyperlink ref="F133:F136" r:id="rId24" location="2932-manual-adjudication-decision-service" display="POST /registration-processor/manual-adjudication/assignment"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
@@ -18053,29 +18042,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18286,21 +18258,35 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B443FFFF-5AD5-4D1A-BEBD-F002358985A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85E73B9D-1766-405A-9B26-47DF7884A997}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18325,9 +18311,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85E73B9D-1766-405A-9B26-47DF7884A997}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B443FFFF-5AD5-4D1A-BEBD-F002358985A8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>